--- a/HW3_trip_distribution.xlsx
+++ b/HW3_trip_distribution.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\KS_personal\USP_587\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saavedrak\KS_personal\USP_587\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14296E19-F831-4DE1-90C4-428CF0987A75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trip_Prod&amp;Attr" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="F-factors Lookup Table" sheetId="3" r:id="rId3"/>
     <sheet name="Observed Trips" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -205,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,6 +392,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,18 +425,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +443,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -478,6 +477,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -551,7 +551,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F9E8-4EDC-8EBD-CA21411DC9D0}"/>
             </c:ext>
@@ -591,7 +591,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F9E8-4EDC-8EBD-CA21411DC9D0}"/>
             </c:ext>
@@ -607,11 +607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204262400"/>
-        <c:axId val="204272384"/>
+        <c:axId val="395715112"/>
+        <c:axId val="395715504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204262400"/>
+        <c:axId val="395715112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204272384"/>
+        <c:crossAx val="395715504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -629,7 +629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204272384"/>
+        <c:axId val="395715504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,19 +652,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204262400"/>
+        <c:crossAx val="395715112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -700,7 +702,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,23 +839,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -889,23 +874,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1081,25 +1049,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1100,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>263</v>
       </c>
@@ -1165,7 +1133,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>264</v>
       </c>
@@ -1198,7 +1166,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>269</v>
       </c>
@@ -1231,7 +1199,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>271</v>
       </c>
@@ -1264,7 +1232,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>272</v>
       </c>
@@ -1297,7 +1265,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>274</v>
       </c>
@@ -1330,7 +1298,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>499</v>
       </c>
@@ -1363,7 +1331,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>500</v>
       </c>
@@ -1396,7 +1364,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>513</v>
       </c>
@@ -1429,7 +1397,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>515</v>
       </c>
@@ -1462,7 +1430,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>516</v>
       </c>
@@ -1495,7 +1463,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>517</v>
       </c>
@@ -1528,7 +1496,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>518</v>
       </c>
@@ -1561,7 +1529,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="6">
         <v>519</v>
@@ -1595,11 +1563,11 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1576,7 @@
       </c>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1625,259 +1593,259 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>263</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="24">
         <v>3149.578</v>
       </c>
       <c r="K24" s="1"/>
       <c r="M24">
         <v>263</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="24">
         <v>8689.85</v>
       </c>
-      <c r="P24" s="31">
+      <c r="P24" s="24">
         <v>2307.4448299999999</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>264</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="25">
         <v>3026.768</v>
       </c>
       <c r="K25" s="1"/>
       <c r="M25">
         <v>264</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="25">
         <v>983.1</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="25">
         <v>261.04581999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>269</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="24">
         <v>2624.598</v>
       </c>
       <c r="K26" s="1"/>
       <c r="M26">
         <v>269</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="24">
         <v>261</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="24">
         <v>69.304199999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>271</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="25">
         <v>1977.7260000000001</v>
       </c>
       <c r="K27" s="1"/>
       <c r="M27">
         <v>271</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="25">
         <v>3448.1</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="25">
         <v>915.58547999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>272</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="24">
         <v>180.13</v>
       </c>
       <c r="K28" s="1"/>
       <c r="M28">
         <v>272</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="24">
         <v>40800.1</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="24">
         <v>10833.786529999999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>274</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="25">
         <v>3484.97</v>
       </c>
       <c r="K29" s="1"/>
       <c r="M29">
         <v>274</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="25">
         <v>372.65</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="25">
         <v>98.950999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>499</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="24">
         <v>911.82600000000002</v>
       </c>
       <c r="K30" s="1"/>
       <c r="M30">
         <v>499</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="24">
         <v>15662.9</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="24">
         <v>4159.0220399999998</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>500</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="25">
         <v>536.34400000000005</v>
       </c>
       <c r="K31" s="1"/>
       <c r="M31">
         <v>500</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="25">
         <v>1003.4</v>
       </c>
-      <c r="P31" s="32">
+      <c r="P31" s="25">
         <v>266.43615</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>513</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="24">
         <v>348.24799999999999</v>
       </c>
       <c r="K32" s="1"/>
       <c r="M32">
         <v>513</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="24">
         <v>343.65</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="24">
         <v>91.250529999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>515</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="25">
         <v>68.835999999999999</v>
       </c>
       <c r="K33" s="1"/>
       <c r="M33">
         <v>515</v>
       </c>
-      <c r="N33" s="32">
+      <c r="N33" s="25">
         <v>11868.25</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="25">
         <v>3151.4159800000002</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>516</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="24">
         <v>2244.848</v>
       </c>
       <c r="K34" s="1"/>
       <c r="M34">
         <v>516</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="24">
         <v>15764.4</v>
       </c>
-      <c r="P34" s="31">
+      <c r="P34" s="24">
         <v>4185.9736700000003</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>517</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="25">
         <v>2307.2539999999999</v>
       </c>
       <c r="K35" s="1"/>
       <c r="M35">
         <v>517</v>
       </c>
-      <c r="N35" s="32">
+      <c r="N35" s="25">
         <v>1149.8499999999999</v>
       </c>
-      <c r="P35" s="32">
+      <c r="P35" s="25">
         <v>305.32350000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>518</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="24">
         <v>2808.15</v>
       </c>
       <c r="K36" s="1"/>
       <c r="M36">
         <v>518</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="24">
         <v>648.15</v>
       </c>
-      <c r="P36" s="31">
+      <c r="P36" s="24">
         <v>172.10543000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>519</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="25">
         <v>3245.01</v>
       </c>
       <c r="K37" s="1"/>
       <c r="M37">
         <v>519</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="25">
         <v>363.95</v>
       </c>
-      <c r="P37" s="32">
+      <c r="P37" s="25">
         <v>96.640860000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -1898,537 +1866,537 @@
         <v>26914.28602</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+    <row r="42" spans="2:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="B42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="30" t="s">
+      <c r="K42" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="31">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="24">
         <v>263</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="24">
         <v>516.52</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="24">
         <v>1419.528</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="24">
         <v>642.46600000000001</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="24">
         <v>571.06399999999996</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="24">
         <v>344.28399999999999</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="24">
         <v>5993</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="24">
         <v>3149.578</v>
       </c>
-      <c r="J43" s="31">
+      <c r="J43" s="24">
         <v>8689.85</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K43" s="24">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L43" s="31">
+      <c r="L43" s="24">
         <v>2307.4448299999999</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="32">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="25">
         <v>264</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="25">
         <v>498.02</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="25">
         <v>1254</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="25">
         <v>672.67600000000004</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="25">
         <v>602.072</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="25">
         <v>400.72399999999999</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="25">
         <v>678</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="25">
         <v>3026.768</v>
       </c>
-      <c r="J44" s="32">
+      <c r="J44" s="25">
         <v>983.1</v>
       </c>
-      <c r="K44" s="32">
+      <c r="K44" s="25">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="25">
         <v>261.04581999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="31">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="24">
         <v>269</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="24">
         <v>397.38</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="24">
         <v>1105.192</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="24">
         <v>545.79399999999998</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="24">
         <v>576.23199999999997</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="24">
         <v>316.06400000000002</v>
       </c>
-      <c r="H45" s="31">
+      <c r="H45" s="24">
         <v>180</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="24">
         <v>2624.598</v>
       </c>
-      <c r="J45" s="31">
+      <c r="J45" s="24">
         <v>261</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="24">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L45" s="31">
+      <c r="L45" s="24">
         <v>69.304199999999994</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="32">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="25">
         <v>271</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="25">
         <v>255.3</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="25">
         <v>755.74400000000003</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="25">
         <v>537.73800000000006</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="25">
         <v>428.94400000000002</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="25">
         <v>268.08999999999997</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="25">
         <v>2378</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="25">
         <v>1977.7260000000001</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="25">
         <v>3448.1</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="25">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L46" s="32">
+      <c r="L46" s="25">
         <v>915.58547999999996</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="31">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="24">
         <v>272</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="24">
         <v>91.02</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="24">
         <v>63.536000000000001</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="24">
         <v>10.07</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="24">
         <v>15.504</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="24">
         <v>0</v>
       </c>
-      <c r="H47" s="31">
+      <c r="H47" s="24">
         <v>28138</v>
       </c>
-      <c r="I47" s="31">
+      <c r="I47" s="24">
         <v>180.13</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="24">
         <v>40800.1</v>
       </c>
-      <c r="K47" s="31">
+      <c r="K47" s="24">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L47" s="31">
+      <c r="L47" s="24">
         <v>10833.786529999999</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="32">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="25">
         <v>274</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="25">
         <v>485.44</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="25">
         <v>1489.752</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="25">
         <v>755.25</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="25">
         <v>754.52800000000002</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="25">
         <v>420.47800000000001</v>
       </c>
-      <c r="H48" s="32">
+      <c r="H48" s="25">
         <v>257</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="25">
         <v>3484.97</v>
       </c>
-      <c r="J48" s="32">
+      <c r="J48" s="25">
         <v>372.65</v>
       </c>
-      <c r="K48" s="32">
+      <c r="K48" s="25">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L48" s="32">
+      <c r="L48" s="25">
         <v>98.950999999999993</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="31">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="24">
         <v>499</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="24">
         <v>170.94</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="24">
         <v>443.08</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="24">
         <v>171.19</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="24">
         <v>126.616</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="24">
         <v>118.524</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="24">
         <v>10802</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I49" s="24">
         <v>911.82600000000002</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="24">
         <v>15662.9</v>
       </c>
-      <c r="K49" s="31">
+      <c r="K49" s="24">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L49" s="31">
+      <c r="L49" s="24">
         <v>4159.0220399999998</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="32">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="25">
         <v>500</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="25">
         <v>61.42</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="25">
         <v>225.72</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="25">
         <v>132.92400000000001</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="25">
         <v>116.28</v>
       </c>
-      <c r="G50" s="32">
+      <c r="G50" s="25">
         <v>64.906000000000006</v>
       </c>
-      <c r="H50" s="32">
+      <c r="H50" s="25">
         <v>692</v>
       </c>
-      <c r="I50" s="32">
+      <c r="I50" s="25">
         <v>536.34400000000005</v>
       </c>
-      <c r="J50" s="32">
+      <c r="J50" s="25">
         <v>1003.4</v>
       </c>
-      <c r="K50" s="32">
+      <c r="K50" s="25">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L50" s="32">
+      <c r="L50" s="25">
         <v>266.43615</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="31">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="24">
         <v>513</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="24">
         <v>16.28</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="24">
         <v>127.072</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="24">
         <v>88.616</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="24">
         <v>116.28</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="24">
         <v>90.304000000000002</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="24">
         <v>237</v>
       </c>
-      <c r="I51" s="31">
+      <c r="I51" s="24">
         <v>348.24799999999999</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="24">
         <v>343.65</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="24">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="24">
         <v>91.250529999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="32">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="25">
         <v>515</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="25">
         <v>28.86</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="25">
         <v>16.72</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="25">
         <v>0</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="25">
         <v>23.256</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="25">
         <v>0</v>
       </c>
-      <c r="H52" s="32">
+      <c r="H52" s="25">
         <v>8185</v>
       </c>
-      <c r="I52" s="32">
+      <c r="I52" s="25">
         <v>68.835999999999999</v>
       </c>
-      <c r="J52" s="32">
+      <c r="J52" s="25">
         <v>11868.25</v>
       </c>
-      <c r="K52" s="32">
+      <c r="K52" s="25">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L52" s="32">
+      <c r="L52" s="25">
         <v>3151.4159800000002</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="31">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="24">
         <v>516</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="24">
         <v>507.64</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="24">
         <v>1093.4880000000001</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="24">
         <v>418.91199999999998</v>
       </c>
-      <c r="F53" s="31">
+      <c r="F53" s="24">
         <v>224.80799999999999</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="24">
         <v>124.16800000000001</v>
       </c>
-      <c r="H53" s="31">
+      <c r="H53" s="24">
         <v>10872</v>
       </c>
-      <c r="I53" s="31">
+      <c r="I53" s="24">
         <v>2244.848</v>
       </c>
-      <c r="J53" s="31">
+      <c r="J53" s="24">
         <v>15764.4</v>
       </c>
-      <c r="K53" s="31">
+      <c r="K53" s="24">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L53" s="31">
+      <c r="L53" s="24">
         <v>4185.9736700000003</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="32">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="25">
         <v>517</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="25">
         <v>247.16</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="25">
         <v>745.71199999999999</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="25">
         <v>541.76599999999996</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="25">
         <v>772.61599999999999</v>
       </c>
-      <c r="G54" s="32">
+      <c r="G54" s="25">
         <v>420.47800000000001</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="25">
         <v>793</v>
       </c>
-      <c r="I54" s="32">
+      <c r="I54" s="25">
         <v>2307.2539999999999</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J54" s="25">
         <v>1149.8499999999999</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="25">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="25">
         <v>305.32350000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="31">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="24">
         <v>518</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="24">
         <v>402.56</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="24">
         <v>1105.192</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="24">
         <v>582.04600000000005</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="24">
         <v>718.35199999999998</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="24">
         <v>386.61399999999998</v>
       </c>
-      <c r="H55" s="31">
+      <c r="H55" s="24">
         <v>447</v>
       </c>
-      <c r="I55" s="31">
+      <c r="I55" s="24">
         <v>2808.15</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="24">
         <v>648.15</v>
       </c>
-      <c r="K55" s="31">
+      <c r="K55" s="24">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L55" s="31">
+      <c r="L55" s="24">
         <v>172.10543000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="32">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="25">
         <v>519</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="25">
         <v>421.8</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="25">
         <v>1302.4880000000001</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="25">
         <v>771.36199999999997</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="25">
         <v>749.36</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="25">
         <v>457.16399999999999</v>
       </c>
-      <c r="H56" s="32">
+      <c r="H56" s="25">
         <v>251</v>
       </c>
-      <c r="I56" s="32">
+      <c r="I56" s="25">
         <v>3245.01</v>
       </c>
-      <c r="J56" s="32">
+      <c r="J56" s="25">
         <v>363.95</v>
       </c>
-      <c r="K56" s="32">
+      <c r="K56" s="25">
         <v>0.26553330000000003</v>
       </c>
-      <c r="L56" s="32">
+      <c r="L56" s="25">
         <v>96.640860000000004</v>
       </c>
     </row>
@@ -2442,14 +2410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V143"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="R119" sqref="R119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
@@ -2462,34 +2430,34 @@
     <col min="22" max="22" width="11.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4">
@@ -2535,8 +2503,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8">
@@ -2585,8 +2553,8 @@
         <v>15.547000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
       <c r="B6" s="5">
         <v>264</v>
       </c>
@@ -2633,8 +2601,8 @@
         <v>12.487</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <v>269</v>
       </c>
@@ -2681,8 +2649,8 @@
         <v>11.122</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
       <c r="B8" s="5">
         <v>271</v>
       </c>
@@ -2729,8 +2697,8 @@
         <v>11.355</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
       <c r="B9" s="5">
         <v>272</v>
       </c>
@@ -2777,8 +2745,8 @@
         <v>11.478</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
       <c r="B10" s="5">
         <v>274</v>
       </c>
@@ -2825,8 +2793,8 @@
         <v>16.134</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
       <c r="B11" s="5">
         <v>499</v>
       </c>
@@ -2873,8 +2841,8 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
       <c r="B12" s="5">
         <v>500</v>
       </c>
@@ -2921,8 +2889,8 @@
         <v>10.231999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
       <c r="B13" s="5">
         <v>513</v>
       </c>
@@ -2969,8 +2937,8 @@
         <v>11.433999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
       <c r="B14" s="5">
         <v>515</v>
       </c>
@@ -3017,8 +2985,8 @@
         <v>8.2690000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
       <c r="B15" s="5">
         <v>516</v>
       </c>
@@ -3065,8 +3033,8 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
       <c r="B16" s="5">
         <v>517</v>
       </c>
@@ -3113,8 +3081,8 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
       <c r="B17" s="5">
         <v>518</v>
       </c>
@@ -3161,8 +3129,8 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
       <c r="B18" s="6">
         <v>519</v>
       </c>
@@ -3209,7 +3177,7 @@
         <v>4.7709000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -3225,34 +3193,34 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="9">
@@ -3303,16 +3271,16 @@
       <c r="R22" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="31"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="U22" s="24"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="7">
         <v>263</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="26">
         <f>VLOOKUP(ROUND(C5,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>13161</v>
       </c>
@@ -3380,14 +3348,14 @@
         <f>R23/Q23</f>
         <v>2.8662130675113345E-2</v>
       </c>
-      <c r="U23" s="32"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="U23" s="25"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="9">
         <v>264</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="27">
         <f>VLOOKUP(ROUND(C6,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>7972</v>
       </c>
@@ -3455,14 +3423,14 @@
         <f t="shared" ref="S24:S36" si="1">R24/Q24</f>
         <v>2.3021131629539482E-3</v>
       </c>
-      <c r="U24" s="31"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="U24" s="24"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
       <c r="B25" s="9">
         <v>269</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="27">
         <f>VLOOKUP(ROUND(C7,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>7037</v>
       </c>
@@ -3530,14 +3498,14 @@
         <f t="shared" si="1"/>
         <v>5.4499001305380367E-4</v>
       </c>
-      <c r="U25" s="32"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="U25" s="25"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
       <c r="B26" s="9">
         <v>271</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="27">
         <f>VLOOKUP(ROUND(C8,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>5486</v>
       </c>
@@ -3605,14 +3573,14 @@
         <f t="shared" si="1"/>
         <v>7.4443290972510184E-3</v>
       </c>
-      <c r="U26" s="31"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="U26" s="24"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
       <c r="B27" s="9">
         <v>272</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="27">
         <f>VLOOKUP(ROUND(C9,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>5486</v>
       </c>
@@ -3680,14 +3648,14 @@
         <f t="shared" si="1"/>
         <v>9.1397363900957512E-2</v>
       </c>
-      <c r="U27" s="32"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="U27" s="25"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
       <c r="B28" s="9">
         <v>274</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="27">
         <f>VLOOKUP(ROUND(C10,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>3339</v>
       </c>
@@ -3755,14 +3723,14 @@
         <f t="shared" si="1"/>
         <v>1.239040332577854E-3</v>
       </c>
-      <c r="U28" s="31"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="U28" s="24"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
       <c r="B29" s="9">
         <v>499</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="27">
         <f>VLOOKUP(ROUND(C11,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>4845</v>
       </c>
@@ -3830,14 +3798,14 @@
         <f t="shared" si="1"/>
         <v>3.7648429799945683E-2</v>
       </c>
-      <c r="U29" s="32"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="U29" s="25"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
       <c r="B30" s="9">
         <v>500</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="27">
         <f>VLOOKUP(ROUND(C12,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>2607</v>
       </c>
@@ -3905,14 +3873,14 @@
         <f t="shared" si="1"/>
         <v>3.7463954273179783E-3</v>
       </c>
-      <c r="U30" s="31"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="U30" s="24"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
       <c r="B31" s="9">
         <v>513</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="27">
         <f>VLOOKUP(ROUND(C13,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>4280</v>
       </c>
@@ -3980,14 +3948,14 @@
         <f t="shared" si="1"/>
         <v>1.1392787315063363E-3</v>
       </c>
-      <c r="U31" s="32"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="U31" s="25"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
       <c r="B32" s="9">
         <v>515</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="27">
         <f>VLOOKUP(ROUND(C14,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>7037</v>
       </c>
@@ -4055,14 +4023,14 @@
         <f t="shared" si="1"/>
         <v>2.1864335380025673E-2</v>
       </c>
-      <c r="U32" s="31"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="U32" s="24"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
       <c r="B33" s="9">
         <v>516</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="27">
         <f>VLOOKUP(ROUND(C15,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>7037</v>
       </c>
@@ -4130,14 +4098,14 @@
         <f t="shared" si="1"/>
         <v>3.1822819446556183E-2</v>
       </c>
-      <c r="U33" s="32"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="U33" s="25"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
       <c r="B34" s="9">
         <v>517</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="27">
         <f>VLOOKUP(ROUND(C16,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>4280</v>
       </c>
@@ -4205,14 +4173,14 @@
         <f t="shared" si="1"/>
         <v>2.8696087369242196E-3</v>
       </c>
-      <c r="U34" s="31"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="U34" s="24"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
       <c r="B35" s="9">
         <v>518</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="27">
         <f>VLOOKUP(ROUND(C17,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>5486</v>
       </c>
@@ -4280,14 +4248,14 @@
         <f t="shared" si="1"/>
         <v>1.4735937085270522E-3</v>
       </c>
-      <c r="U35" s="32"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="U35" s="25"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="33"/>
       <c r="B36" s="4">
         <v>519</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="28">
         <f>VLOOKUP(ROUND(C18,0), 'F-factors Lookup Table'!$A$4:$D$33, 2)</f>
         <v>3780</v>
       </c>
@@ -4356,7 +4324,7 @@
         <v>9.5189224328983009E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -4418,59 +4386,59 @@
         <v>111337</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="24">
         <v>3149.578</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="25">
         <v>3026.768</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="24">
         <v>2624.598</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="25">
         <v>1977.7260000000001</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="24">
         <v>180.13</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="25">
         <v>3484.97</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="24">
         <v>911.82600000000002</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="25">
         <v>536.34400000000005</v>
       </c>
-      <c r="K38" s="31">
+      <c r="K38" s="24">
         <v>348.24799999999999</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="25">
         <v>68.835999999999999</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="24">
         <v>2244.848</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="25">
         <v>2307.2539999999999</v>
       </c>
-      <c r="O38" s="31">
+      <c r="O38" s="24">
         <v>2808.15</v>
       </c>
-      <c r="P38" s="32">
+      <c r="P38" s="25">
         <v>3245.01</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -4478,7 +4446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>263</v>
       </c>
@@ -4528,7 +4496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4604,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>264</v>
       </c>
@@ -4677,7 +4645,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>269</v>
       </c>
@@ -4750,7 +4718,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>271</v>
       </c>
@@ -4823,7 +4791,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>272</v>
       </c>
@@ -4896,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>274</v>
       </c>
@@ -4969,7 +4937,7 @@
         <v>0.99999999999999967</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>499</v>
       </c>
@@ -5042,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>500</v>
       </c>
@@ -5115,7 +5083,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>513</v>
       </c>
@@ -5188,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>515</v>
       </c>
@@ -5261,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>516</v>
       </c>
@@ -5334,7 +5302,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>517</v>
       </c>
@@ -5407,7 +5375,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>518</v>
       </c>
@@ -5480,7 +5448,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>519</v>
       </c>
@@ -5553,7 +5521,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -5622,7 +5590,7 @@
         <v>26914.28602</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -5683,7 +5651,7 @@
         <v>3245.01</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C59">
         <f>C58/C57</f>
         <v>2.0390859616080745</v>
@@ -5741,12 +5709,12 @@
         <v>1.8726352140397331</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>263</v>
       </c>
@@ -5796,7 +5764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -5872,7 +5840,7 @@
         <v>0.89370504365032499</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>264</v>
       </c>
@@ -5945,7 +5913,7 @@
         <v>0.95082476251445469</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>269</v>
       </c>
@@ -6018,7 +5986,7 @@
         <v>0.99379033996542421</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>271</v>
       </c>
@@ -6091,7 +6059,7 @@
         <v>1.007136360954221</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>272</v>
       </c>
@@ -6164,7 +6132,7 @@
         <v>1.0129945081812544</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>274</v>
       </c>
@@ -6237,7 +6205,7 @@
         <v>0.90865045366926478</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>499</v>
       </c>
@@ -6310,7 +6278,7 @@
         <v>1.0421261005557796</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>500</v>
       </c>
@@ -6383,7 +6351,7 @@
         <v>1.0641958327531003</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>513</v>
       </c>
@@ -6456,7 +6424,7 @@
         <v>1.0408229904715824</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>515</v>
       </c>
@@ -6529,7 +6497,7 @@
         <v>1.0097987018785106</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>516</v>
       </c>
@@ -6602,7 +6570,7 @@
         <v>0.98914259633262225</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>517</v>
       </c>
@@ -6675,7 +6643,7 @@
         <v>0.97037507115918442</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>518</v>
       </c>
@@ -6748,7 +6716,7 @@
         <v>0.96644898035787952</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>519</v>
       </c>
@@ -6821,7 +6789,7 @@
         <v>0.95790430303096452</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -6890,7 +6858,7 @@
         <v>26914.28602</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -6951,7 +6919,7 @@
         <v>3245.01</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C79">
         <f>C78/C77</f>
         <v>0.99999999999999989</v>
@@ -7009,12 +6977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>263</v>
       </c>
@@ -7064,7 +7032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -7140,7 +7108,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>264</v>
       </c>
@@ -7213,7 +7181,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>269</v>
       </c>
@@ -7286,7 +7254,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>271</v>
       </c>
@@ -7359,7 +7327,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>272</v>
       </c>
@@ -7432,7 +7400,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>274</v>
       </c>
@@ -7505,7 +7473,7 @@
         <v>0.99999999999999967</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>499</v>
       </c>
@@ -7578,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>500</v>
       </c>
@@ -7651,7 +7619,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>513</v>
       </c>
@@ -7724,7 +7692,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>515</v>
       </c>
@@ -7797,7 +7765,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>516</v>
       </c>
@@ -7870,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>517</v>
       </c>
@@ -7943,7 +7911,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>518</v>
       </c>
@@ -8016,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>519</v>
       </c>
@@ -8089,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -8158,7 +8126,7 @@
         <v>26914.28602</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -8219,7 +8187,7 @@
         <v>3245.01</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C99">
         <f>C98/C97</f>
         <v>1.018324171309799</v>
@@ -8277,12 +8245,12 @@
         <v>0.99534440169984406</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>263</v>
       </c>
@@ -8332,7 +8300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -8408,7 +8376,7 @@
         <v>0.99580669998606841</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>264</v>
       </c>
@@ -8481,7 +8449,7 @@
         <v>0.99893158823869865</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>269</v>
       </c>
@@ -8554,7 +8522,7 @@
         <v>0.99974751293280695</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>271</v>
       </c>
@@ -8627,7 +8595,7 @@
         <v>1.0007157691485125</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>272</v>
       </c>
@@ -8700,7 +8668,7 @@
         <v>1.0005949002381047</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>274</v>
       </c>
@@ -8773,7 +8741,7 @@
         <v>1.0016261207907715</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>499</v>
       </c>
@@ -8846,7 +8814,7 @@
         <v>1.0005923309501561</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>500</v>
       </c>
@@ -8919,7 +8887,7 @@
         <v>1.0010823635044133</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>513</v>
       </c>
@@ -8992,7 +8960,7 @@
         <v>0.99985160075269486</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>515</v>
       </c>
@@ -9065,7 +9033,7 @@
         <v>1.0001051903654108</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>516</v>
       </c>
@@ -9138,7 +9106,7 @@
         <v>0.99985144466201548</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>517</v>
       </c>
@@ -9211,7 +9179,7 @@
         <v>1.0005701302109149</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>518</v>
       </c>
@@ -9284,7 +9252,7 @@
         <v>1.0001873218439437</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>519</v>
       </c>
@@ -9357,7 +9325,7 @@
         <v>1.001079888148223</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -9426,7 +9394,7 @@
         <v>26914.28602</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -9486,8 +9454,12 @@
         <f t="shared" si="129"/>
         <v>3245.01</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <f>SUM(Q104:Q117)</f>
+        <v>51511.41061714098</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C119">
         <f>C118/C117</f>
         <v>0.99999999999999967</v>
@@ -9545,17 +9517,17 @@
         <v>0.99999999999999967</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>263</v>
       </c>
@@ -9602,7 +9574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -9670,7 +9642,7 @@
         <v>25521.57872144756</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>264</v>
       </c>
@@ -9735,7 +9707,7 @@
         <v>2471.6777946004304</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>269</v>
       </c>
@@ -9800,7 +9772,7 @@
         <v>611.17252975568158</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>271</v>
       </c>
@@ -9865,7 +9837,7 @@
         <v>8522.6357318826958</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>272</v>
       </c>
@@ -9930,7 +9902,7 @@
         <v>106758.03114186082</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>274</v>
       </c>
@@ -9995,7 +9967,7 @@
         <v>1090.2035074913852</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>499</v>
       </c>
@@ -10060,7 +10032,7 @@
         <v>44029.526659778785</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>500</v>
       </c>
@@ -10125,7 +10097,7 @@
         <v>3640.4661301018259</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>513</v>
       </c>
@@ -10190,7 +10162,7 @@
         <v>1169.7744118816934</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>515</v>
       </c>
@@ -10255,7 +10227,7 @@
         <v>25718.221324485286</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>516</v>
       </c>
@@ -10320,7 +10292,7 @@
         <v>36110.917442179256</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>517</v>
       </c>
@@ -10385,7 +10357,7 @@
         <v>2917.2741762219025</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>518</v>
       </c>
@@ -10450,7 +10422,7 @@
         <v>1571.2857816985904</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>519</v>
       </c>
@@ -10515,13 +10487,13 @@
         <v>930.42243694769957</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q141">
         <f>SUM(Q127:Q140)</f>
         <v>261063.18779033361</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="21" t="s">
         <v>33</v>
       </c>
@@ -10530,13 +10502,13 @@
         <v>261063.1877903335</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C143" t="e">
+      <c r="C143">
         <f>C142/Q118</f>
-        <v>#DIV/0!</v>
+        <v>5.0680652046337453</v>
       </c>
     </row>
   </sheetData>
@@ -10552,24 +10524,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>44</v>
       </c>
@@ -10583,7 +10555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10597,7 +10569,7 @@
         <v>198293</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10611,7 +10583,7 @@
         <v>71303</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10625,7 +10597,7 @@
         <v>37607</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10639,7 +10611,7 @@
         <v>23203</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10653,7 +10625,7 @@
         <v>15601</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10667,7 +10639,7 @@
         <v>11075</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10681,7 +10653,7 @@
         <v>8163</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10695,7 +10667,7 @@
         <v>6184</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10709,7 +10681,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10723,7 +10695,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10737,7 +10709,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10751,7 +10723,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -10765,7 +10737,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -10779,7 +10751,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -10793,7 +10765,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -10807,7 +10779,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -10821,7 +10793,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -10835,7 +10807,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -10849,7 +10821,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -10863,7 +10835,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -10877,7 +10849,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -10891,7 +10863,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -10905,7 +10877,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -10919,7 +10891,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -10933,7 +10905,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -10947,7 +10919,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -10961,7 +10933,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -10975,7 +10947,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -10989,7 +10961,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -11009,14 +10981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -11025,12 +10997,12 @@
     <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -11054,7 +11026,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>263</v>
       </c>
@@ -11082,7 +11054,7 @@
         <v>22.393202097373084</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>263</v>
       </c>
@@ -11110,7 +11082,7 @@
         <v>60.630873747465536</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>263</v>
       </c>
@@ -11138,7 +11110,7 @@
         <v>16.078991935323412</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>263</v>
       </c>
@@ -11166,7 +11138,7 @@
         <v>0.87765601108623259</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>263</v>
       </c>
@@ -11194,7 +11166,7 @@
         <v>1.9276208751789516E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>263</v>
       </c>
@@ -11222,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>263</v>
       </c>
@@ -11240,7 +11212,7 @@
         <v>700.29570330000013</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>263</v>
       </c>
@@ -11258,7 +11230,7 @@
         <v>101.35163724300001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>263</v>
       </c>
@@ -11276,7 +11248,7 @@
         <v>45.236767950000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>263</v>
       </c>
@@ -11294,7 +11266,7 @@
         <v>637.98603533999994</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>263</v>
       </c>
@@ -11312,7 +11284,7 @@
         <v>2758.5683023680003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>263</v>
       </c>
@@ -11330,7 +11302,7 @@
         <v>700.70940918000008</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>263</v>
       </c>
@@ -11348,7 +11320,7 @@
         <v>628.04038094999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>263</v>
       </c>
@@ -11366,7 +11338,7 @@
         <v>272.45792567699999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>264</v>
       </c>
@@ -11384,7 +11356,7 @@
         <v>743.92380152999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>264</v>
       </c>
@@ -11402,7 +11374,7 @@
         <v>3553.1424617058005</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>264</v>
       </c>
@@ -11420,7 +11392,7 @@
         <v>849.91915008000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>264</v>
       </c>
@@ -11441,7 +11413,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>264</v>
       </c>
@@ -11465,7 +11437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>264</v>
       </c>
@@ -11493,7 +11465,7 @@
         <v>2.2763804697340864</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>264</v>
       </c>
@@ -11521,7 +11493,7 @@
         <v>59.601425738767453</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>264</v>
       </c>
@@ -11549,7 +11521,7 @@
         <v>35.627790410582172</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>264</v>
       </c>
@@ -11577,7 +11549,7 @@
         <v>2.4049481583128496</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>264</v>
       </c>
@@ -11605,7 +11577,7 @@
         <v>8.9455222603469595E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>264</v>
       </c>
@@ -11633,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>264</v>
       </c>
@@ -11658,7 +11630,7 @@
         <v>100.00000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>264</v>
       </c>
@@ -11676,7 +11648,7 @@
         <v>777.97770687000002</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>264</v>
       </c>
@@ -11694,7 +11666,7 @@
         <v>330.41242583100001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>269</v>
       </c>
@@ -11712,7 +11684,7 @@
         <v>431.55949850999997</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>269</v>
       </c>
@@ -11730,7 +11702,7 @@
         <v>841.78222847999996</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>269</v>
       </c>
@@ -11748,7 +11720,7 @@
         <v>1814.4950646240002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>269</v>
       </c>
@@ -11766,7 +11738,7 @@
         <v>476.31527460000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>269</v>
       </c>
@@ -11784,7 +11756,7 @@
         <v>3359.9526440400009</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>269</v>
       </c>
@@ -11802,7 +11774,7 @@
         <v>354.58619486399999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>269</v>
       </c>
@@ -11820,7 +11792,7 @@
         <v>558.34042567500012</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>269</v>
       </c>
@@ -11838,7 +11810,7 @@
         <v>108.11976533999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>269</v>
       </c>
@@ -11856,7 +11828,7 @@
         <v>25.043024906999996</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>269</v>
       </c>
@@ -11874,7 +11846,7 @@
         <v>647.15042177999999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>269</v>
       </c>
@@ -11892,7 +11864,7 @@
         <v>2923.0840219680003</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>269</v>
       </c>
@@ -11910,7 +11882,7 @@
         <v>748.61519544000021</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>269</v>
       </c>
@@ -11928,7 +11900,7 @@
         <v>719.27503830000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>269</v>
       </c>
@@ -11946,7 +11918,7 @@
         <v>295.88638476600005</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>271</v>
       </c>
@@ -11964,7 +11936,7 @@
         <v>287.3925198</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>271</v>
       </c>
@@ -11982,7 +11954,7 @@
         <v>479.51023044599992</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>271</v>
       </c>
@@ -12000,7 +11972,7 @@
         <v>533.68341170400004</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>271</v>
       </c>
@@ -12018,7 +11990,7 @@
         <v>1484.5528011600002</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>271</v>
       </c>
@@ -12036,7 +12008,7 @@
         <v>2991.5678126249995</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>271</v>
       </c>
@@ -12054,7 +12026,7 @@
         <v>586.65156253199984</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>271</v>
       </c>
@@ -12072,7 +12044,7 @@
         <v>567.52914342600013</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>271</v>
       </c>
@@ -12090,7 +12062,7 @@
         <v>77.792352777000005</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>271</v>
       </c>
@@ -12108,7 +12080,7 @@
         <v>14.066619300000003</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>271</v>
       </c>
@@ -12126,7 +12098,7 @@
         <v>238.39834901400002</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>271</v>
       </c>
@@ -12144,7 +12116,7 @@
         <v>1462.9833994860001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>271</v>
       </c>
@@ -12162,7 +12134,7 @@
         <v>445.24187576999998</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>271</v>
       </c>
@@ -12180,7 +12152,7 @@
         <v>406.64471623199995</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>271</v>
       </c>
@@ -12198,7 +12170,7 @@
         <v>196.35471373499999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>272</v>
       </c>
@@ -12216,7 +12188,7 @@
         <v>762.82192948500006</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>272</v>
       </c>
@@ -12234,7 +12206,7 @@
         <v>988.15861223999991</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>272</v>
       </c>
@@ -12252,7 +12224,7 @@
         <v>1162.0195739099997</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>272</v>
       </c>
@@ -12270,7 +12242,7 @@
         <v>1705.4712385830003</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>272</v>
       </c>
@@ -12288,7 +12260,7 @@
         <v>12894.1370864694</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>272</v>
       </c>
@@ -12306,7 +12278,7 @@
         <v>2170.5872186880006</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>272</v>
       </c>
@@ -12324,7 +12296,7 @@
         <v>1250.107803504</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>272</v>
       </c>
@@ -12342,7 +12314,7 @@
         <v>215.56209213000002</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>272</v>
       </c>
@@ -12360,7 +12332,7 @@
         <v>46.861913178000002</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>272</v>
       </c>
@@ -12378,7 +12350,7 @@
         <v>611.11627199999998</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>272</v>
       </c>
@@ -12396,7 +12368,7 @@
         <v>1730.8435944959999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>272</v>
       </c>
@@ -12414,7 +12386,7 @@
         <v>485.93129328900005</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>272</v>
       </c>
@@ -12432,7 +12404,7 @@
         <v>554.72433538500002</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>272</v>
       </c>
@@ -12450,7 +12422,7 @@
         <v>521.48977621199992</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>274</v>
       </c>
@@ -12468,7 +12440,7 @@
         <v>282.09477284999991</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>274</v>
       </c>
@@ -12486,7 +12458,7 @@
         <v>449.93344550400002</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>274</v>
       </c>
@@ -12504,7 +12476,7 @@
         <v>481.39879332599997</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>274</v>
       </c>
@@ -12522,7 +12494,7 @@
         <v>622.19805412499989</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>274</v>
       </c>
@@ -12540,7 +12512,7 @@
         <v>3897.58136715</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>274</v>
       </c>
@@ -12558,7 +12530,7 @@
         <v>5966.2658845439992</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>274</v>
       </c>
@@ -12576,7 +12548,7 @@
         <v>704.15964548999989</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>274</v>
       </c>
@@ -12594,7 +12566,7 @@
         <v>76.959129834000009</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>274</v>
       </c>
@@ -12612,7 +12584,7 @@
         <v>16.000649999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>274</v>
       </c>
@@ -12630,7 +12602,7 @@
         <v>391.78726588799992</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>274</v>
       </c>
@@ -12648,7 +12620,7 @@
         <v>1745.6993265600001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>274</v>
       </c>
@@ -12666,7 +12638,7 @@
         <v>520.33309505099999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>274</v>
       </c>
@@ -12684,7 +12656,7 @@
         <v>489.57015511800006</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>274</v>
       </c>
@@ -12702,7 +12674,7 @@
         <v>197.49758472000002</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>499</v>
       </c>
@@ -12720,7 +12692,7 @@
         <v>523.89081477000002</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>499</v>
       </c>
@@ -12738,7 +12710,7 @@
         <v>565.57886299200004</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>499</v>
       </c>
@@ -12756,7 +12728,7 @@
         <v>487.69530018300003</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>499</v>
       </c>
@@ -12774,7 +12746,7 @@
         <v>510.41887419600005</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>499</v>
       </c>
@@ -12792,7 +12764,7 @@
         <v>1927.6520563619999</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>499</v>
       </c>
@@ -12810,7 +12782,7 @@
         <v>651.97649088000003</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>499</v>
       </c>
@@ -12828,7 +12800,7 @@
         <v>4550.5394183538001</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>499</v>
       </c>
@@ -12846,7 +12818,7 @@
         <v>314.86374740700001</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>499</v>
       </c>
@@ -12864,7 +12836,7 @@
         <v>66.067333200000007</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>499</v>
       </c>
@@ -12882,7 +12854,7 @@
         <v>811.05375304799998</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>499</v>
       </c>
@@ -12900,7 +12872,7 @@
         <v>2773.702279908</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>499</v>
       </c>
@@ -12918,7 +12890,7 @@
         <v>957.99711193200017</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>499</v>
       </c>
@@ -12936,7 +12908,7 @@
         <v>995.70660336000003</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>499</v>
       </c>
@@ -12954,7 +12926,7 @@
         <v>922.71500802000003</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>500</v>
       </c>
@@ -12972,7 +12944,7 @@
         <v>104.22528038999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>500</v>
       </c>
@@ -12990,7 +12962,7 @@
         <v>134.34115104</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>500</v>
       </c>
@@ -13008,7 +12980,7 @@
         <v>121.81702104</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>500</v>
       </c>
@@ -13026,7 +12998,7 @@
         <v>86.588414910000012</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>500</v>
       </c>
@@ -13044,7 +13016,7 @@
         <v>477.032328162</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>500</v>
       </c>
@@ -13062,7 +13034,7 @@
         <v>88.837642431000006</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>500</v>
       </c>
@@ -13080,7 +13052,7 @@
         <v>391.40692294500002</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>500</v>
       </c>
@@ -13098,7 +13070,7 @@
         <v>1039.5712712502</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>500</v>
       </c>
@@ -13116,7 +13088,7 @@
         <v>23.279928767999998</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>500</v>
       </c>
@@ -13134,7 +13106,7 @@
         <v>284.48166556799998</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>500</v>
       </c>
@@ -13152,7 +13124,7 @@
         <v>681.68312784000011</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>500</v>
       </c>
@@ -13170,7 +13142,7 @@
         <v>281.286334098</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>500</v>
       </c>
@@ -13188,7 +13160,7 @@
         <v>214.10269498799997</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>500</v>
       </c>
@@ -13206,7 +13178,7 @@
         <v>334.17344671199999</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>513</v>
       </c>
@@ -13224,7 +13196,7 @@
         <v>56.613721274999989</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>513</v>
       </c>
@@ -13242,7 +13214,7 @@
         <v>53.557237818000004</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>513</v>
       </c>
@@ -13260,7 +13232,7 @@
         <v>41.772201984000006</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>513</v>
       </c>
@@ -13278,7 +13250,7 @@
         <v>27.729842400000003</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>513</v>
       </c>
@@ -13296,7 +13268,7 @@
         <v>150.773829912</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>513</v>
       </c>
@@ -13314,7 +13286,7 @@
         <v>23.931639071999999</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>513</v>
       </c>
@@ -13332,7 +13304,7 @@
         <v>114.62858167499999</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>513</v>
       </c>
@@ -13350,7 +13322,7 @@
         <v>31.339741554000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>513</v>
       </c>
@@ -13368,7 +13340,7 @@
         <v>60.929078930999985</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>513</v>
       </c>
@@ -13386,7 +13358,7 @@
         <v>92.370432105000006</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>513</v>
       </c>
@@ -13404,7 +13376,7 @@
         <v>375.85169108100007</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>513</v>
       </c>
@@ -13422,7 +13394,7 @@
         <v>346.77439448399997</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>513</v>
       </c>
@@ -13440,7 +13412,7 @@
         <v>145.49549086799999</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>513</v>
       </c>
@@ -13458,7 +13430,7 @@
         <v>84.165273810000002</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>515</v>
       </c>
@@ -13476,7 +13448,7 @@
         <v>504.74064211199999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>515</v>
       </c>
@@ -13494,7 +13466,7 @@
         <v>583.86796425</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>515</v>
       </c>
@@ -13512,7 +13484,7 @@
         <v>545.50118177099989</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>515</v>
       </c>
@@ -13530,7 +13502,7 @@
         <v>264.90860688599997</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>515</v>
       </c>
@@ -13548,7 +13520,7 @@
         <v>857.11212457199997</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>515</v>
       </c>
@@ -13566,7 +13538,7 @@
         <v>348.78727692000007</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>515</v>
       </c>
@@ -13584,7 +13556,7 @@
         <v>754.14751158600006</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>515</v>
       </c>
@@ -13602,7 +13574,7 @@
         <v>211.85666360100004</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>515</v>
       </c>
@@ -13620,7 +13592,7 @@
         <v>56.52810730800001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>515</v>
       </c>
@@ -13638,7 +13610,7 @@
         <v>1469.8859931494999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>515</v>
       </c>
@@ -13656,7 +13628,7 @@
         <v>1672.2378622260001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>515</v>
       </c>
@@ -13674,7 +13646,7 @@
         <v>774.79680229200005</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>515</v>
       </c>
@@ -13692,7 +13664,7 @@
         <v>930.60697148999986</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>515</v>
       </c>
@@ -13710,7 +13682,7 @@
         <v>706.253950422</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>516</v>
       </c>
@@ -13728,7 +13700,7 @@
         <v>1320.7070219489999</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>516</v>
       </c>
@@ -13746,7 +13718,7 @@
         <v>1414.8755857889998</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>516</v>
       </c>
@@ -13764,7 +13736,7 @@
         <v>1298.034969696</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>516</v>
       </c>
@@ -13782,7 +13754,7 @@
         <v>713.8184190479999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>516</v>
       </c>
@@ -13800,7 +13772,7 @@
         <v>3152.3025260160002</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>516</v>
       </c>
@@ -13818,7 +13790,7 @@
         <v>743.17315492800003</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>516</v>
       </c>
@@ -13836,7 +13808,7 @@
         <v>2131.2031088880003</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>516</v>
       </c>
@@ -13854,7 +13826,7 @@
         <v>394.27034498999996</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>516</v>
       </c>
@@ -13872,7 +13844,7 @@
         <v>136.90378517400003</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>516</v>
       </c>
@@ -13890,7 +13862,7 @@
         <v>1868.698285812</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>516</v>
       </c>
@@ -13908,7 +13880,7 @@
         <v>9598.3619427540016</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>516</v>
       </c>
@@ -13926,7 +13898,7 @@
         <v>2271.3366297600001</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>516</v>
       </c>
@@ -13944,7 +13916,7 @@
         <v>2550.7800865800004</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>516</v>
       </c>
@@ -13962,7 +13934,7 @@
         <v>1555.3785578399998</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>517</v>
       </c>
@@ -13980,7 +13952,7 @@
         <v>322.57397412900002</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>517</v>
       </c>
@@ -13998,7 +13970,7 @@
         <v>354.65820245100002</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>517</v>
       </c>
@@ -14016,7 +13988,7 @@
         <v>306.24501843000007</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>517</v>
       </c>
@@ -14034,7 +14006,7 @@
         <v>231.82465395600002</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>517</v>
       </c>
@@ -14052,7 +14024,7 @@
         <v>1236.875204016</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>517</v>
       </c>
@@ -14070,7 +14042,7 @@
         <v>205.61920230600001</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>517</v>
       </c>
@@ -14088,7 +14060,7 @@
         <v>828.74067175799996</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>517</v>
       </c>
@@ -14106,7 +14078,7 @@
         <v>143.26976482200001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>517</v>
       </c>
@@ -14124,7 +14096,7 @@
         <v>67.349766149999994</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>517</v>
       </c>
@@ -14142,7 +14114,7 @@
         <v>929.82390134399998</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>517</v>
       </c>
@@ -14160,7 +14132,7 @@
         <v>2644.2147320730001</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>517</v>
       </c>
@@ -14178,7 +14150,7 @@
         <v>4797.7964313695993</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>517</v>
       </c>
@@ -14196,7 +14168,7 @@
         <v>925.15397328000006</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>517</v>
       </c>
@@ -14214,7 +14186,7 @@
         <v>2649.7895579999999</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>518</v>
       </c>
@@ -14232,7 +14204,7 @@
         <v>563.38725712500002</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>518</v>
       </c>
@@ -14250,7 +14222,7 @@
         <v>534.88468023299993</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>518</v>
       </c>
@@ -14268,7 +14240,7 @@
         <v>446.20166102399997</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>518</v>
       </c>
@@ -14286,7 +14258,7 @@
         <v>385.97403826800002</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>518</v>
       </c>
@@ -14304,7 +14276,7 @@
         <v>2076.1336541340002</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>518</v>
       </c>
@@ -14322,7 +14294,7 @@
         <v>297.94978696500004</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>518</v>
       </c>
@@ -14340,7 +14312,7 @@
         <v>1428.6921284160001</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>518</v>
       </c>
@@ -14358,7 +14330,7 @@
         <v>138.988030842</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>518</v>
       </c>
@@ -14376,7 +14348,7 @@
         <v>54.302999976000002</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>518</v>
       </c>
@@ -14394,7 +14366,7 @@
         <v>1196.5111011900003</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>518</v>
       </c>
@@ -14412,7 +14384,7 @@
         <v>3765.8364183090007</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>518</v>
       </c>
@@ -14430,7 +14402,7 @@
         <v>1313.9998181999999</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>518</v>
       </c>
@@ -14448,7 +14420,7 @@
         <v>4016.9230587972006</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>518</v>
       </c>
@@ -14466,7 +14438,7 @@
         <v>620.55322560000013</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>519</v>
       </c>
@@ -14484,7 +14456,7 @@
         <v>358.02148580099998</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>519</v>
       </c>
@@ -14502,7 +14474,7 @@
         <v>415.46503608299997</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>519</v>
       </c>
@@ -14520,7 +14492,7 @@
         <v>378.29484115199995</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>519</v>
       </c>
@@ -14538,7 +14510,7 @@
         <v>290.51028158399998</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>519</v>
       </c>
@@ -14556,7 +14528,7 @@
         <v>1850.7729743999998</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>519</v>
       </c>
@@ -14574,7 +14546,7 @@
         <v>254.12479782299999</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>519</v>
       </c>
@@ -14592,7 +14564,7 @@
         <v>1333.9377213390001</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>519</v>
       </c>
@@ -14610,7 +14582,7 @@
         <v>371.36023869600001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>519</v>
       </c>
@@ -14628,7 +14600,7 @@
         <v>62.901728640000002</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>519</v>
       </c>
@@ -14646,7 +14618,7 @@
         <v>1114.618023576</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>519</v>
       </c>
@@ -14664,7 +14636,7 @@
         <v>2840.4517136580002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>519</v>
       </c>
@@ -14682,7 +14654,7 @@
         <v>4175.1698507999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>519</v>
       </c>
@@ -14700,7 +14672,7 @@
         <v>1124.4706704</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>519</v>
       </c>
@@ -14718,11 +14690,11 @@
         <v>3458.9737104533997</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="28" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="28"/>
+      <c r="B200" s="34"/>
       <c r="C200" s="19">
         <f>SUM(C4:C199)</f>
         <v>27612.649709999987</v>
@@ -14733,11 +14705,11 @@
         <v>205804.57479415377</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="29" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B201" s="29"/>
+      <c r="B201" s="35"/>
       <c r="C201" s="20"/>
       <c r="D201" s="1"/>
       <c r="E201" s="20">
